--- a/模型对应表.xlsx
+++ b/模型对应表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05BianCheng\QT\WellTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BF57C-7D0E-48CD-8301-E40D1A236E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD775A-D08C-4925-B8A0-04B237B6246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
-  <si>
-    <t>井储模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
     <t>井模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,41 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>modelwidget1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelwidget2</t>
-  </si>
-  <si>
-    <t>modelwidget3</t>
-  </si>
-  <si>
-    <t>modelwidget4</t>
-  </si>
-  <si>
-    <t>modelwidget5</t>
-  </si>
-  <si>
-    <t>modelwidget6</t>
-  </si>
-  <si>
-    <t>变井储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒定井储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压裂水平井</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复合油藏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无限大外边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,23 +63,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>压裂水平井复合页岩油模型1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压裂水平井复合页岩油模型2</t>
-  </si>
-  <si>
-    <t>压裂水平井复合页岩油模型3</t>
-  </si>
-  <si>
-    <t>压裂水平井复合页岩油模型4</t>
-  </si>
-  <si>
-    <t>压裂水平井复合页岩油模型5</t>
-  </si>
-  <si>
-    <t>压裂水平井复合页岩油模型6</t>
+    <t>井储表皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>径向复合油藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内外区模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重孔隙+双重孔隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型2</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型3</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型4</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型5</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型6</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型7</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型8</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型9</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型10</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型11</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型12</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型13</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型14</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型15</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型16</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型17</t>
+  </si>
+  <si>
+    <t>压裂水平井复径向复合模型18</t>
+  </si>
+  <si>
+    <t>双重孔隙+均质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均质+均质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>model4</t>
+  </si>
+  <si>
+    <t>model5</t>
+  </si>
+  <si>
+    <t>model6</t>
+  </si>
+  <si>
+    <t>model7</t>
+  </si>
+  <si>
+    <t>model8</t>
+  </si>
+  <si>
+    <t>model9</t>
+  </si>
+  <si>
+    <t>model10</t>
+  </si>
+  <si>
+    <t>model11</t>
+  </si>
+  <si>
+    <t>model12</t>
+  </si>
+  <si>
+    <t>model13</t>
+  </si>
+  <si>
+    <t>model14</t>
+  </si>
+  <si>
+    <t>model15</t>
+  </si>
+  <si>
+    <t>model16</t>
+  </si>
+  <si>
+    <t>model17</t>
+  </si>
+  <si>
+    <t>model18</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹层型径向复合油藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model19</t>
+  </si>
+  <si>
+    <t>model20</t>
+  </si>
+  <si>
+    <t>model21</t>
+  </si>
+  <si>
+    <t>model22</t>
+  </si>
+  <si>
+    <t>model23</t>
+  </si>
+  <si>
+    <t>model24</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型2</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型3</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型4</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型5</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型6</t>
+  </si>
+  <si>
+    <t>夹层型+夹层型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model25</t>
+  </si>
+  <si>
+    <t>model26</t>
+  </si>
+  <si>
+    <t>model27</t>
+  </si>
+  <si>
+    <t>model28</t>
+  </si>
+  <si>
+    <t>model29</t>
+  </si>
+  <si>
+    <t>model30</t>
+  </si>
+  <si>
+    <t>model31</t>
+  </si>
+  <si>
+    <t>model32</t>
+  </si>
+  <si>
+    <t>model33</t>
+  </si>
+  <si>
+    <t>model34</t>
+  </si>
+  <si>
+    <t>model35</t>
+  </si>
+  <si>
+    <t>model36</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型7</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型8</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型9</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型10</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型11</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型12</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型13</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型14</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型15</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型16</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型17</t>
+  </si>
+  <si>
+    <t>压力水平井夹层型模型18</t>
+  </si>
+  <si>
+    <t>夹层型+均质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹层型+双重孔隙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -137,12 +350,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,9 +376,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,29 +664,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.78515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.35546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.0703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.35546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.2109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -476,127 +699,838 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>17</v>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/模型对应表.xlsx
+++ b/模型对应表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\05BianCheng\QT\WellTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD775A-D08C-4925-B8A0-04B237B6246C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B647B-4DA9-4BF4-B9E7-9CCC0A45F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="14708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t>井模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>边界条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -683,11 +679,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -699,838 +692,838 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
